--- a/docs/2017-3-CMPT275-Group-7_features.xls.xlsx
+++ b/docs/2017-3-CMPT275-Group-7_features.xls.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathantannar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathantannar/Documents/iOS/SafetyBeacon/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16560"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Version 1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Delivered On</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>1.1 Patient Menu</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
     <t>Completed to schedule</t>
   </si>
   <si>
-    <t>To be Completed in Part 3</t>
-  </si>
-  <si>
-    <t>Still Needs Radius</t>
-  </si>
-  <si>
     <t>2.12 Turn-by-turn Navigation</t>
   </si>
   <si>
@@ -156,6 +147,24 @@
   </si>
   <si>
     <t>November 17th, 2017</t>
+  </si>
+  <si>
+    <t>November 29th, 2017</t>
+  </si>
+  <si>
+    <t>November 28th, 2017</t>
+  </si>
+  <si>
+    <t>Dec 1th, 2017</t>
+  </si>
+  <si>
+    <t>November 25th, 2017</t>
+  </si>
+  <si>
+    <t>December 3rd 2017</t>
+  </si>
+  <si>
+    <t>December 2nd 2017</t>
   </si>
 </sst>
 </file>
@@ -216,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,24 +235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,50 +278,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,427 +609,437 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
